--- a/DataTable/DialogTable.xlsx
+++ b/DataTable/DialogTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Id</t>
   </si>
@@ -30,7 +30,7 @@
     <t>NextIds</t>
   </si>
   <si>
-    <t>ImageId</t>
+    <t>ImagePath</t>
   </si>
   <si>
     <t>int</t>
@@ -51,21 +51,27 @@
     <t>#文本</t>
   </si>
   <si>
-    <t>#类型</t>
-  </si>
-  <si>
-    <t>#下一目录（组）</t>
-  </si>
-  <si>
-    <t>#图片目录</t>
+    <t>#类型(1正常对话，2选项，3事件）</t>
+  </si>
+  <si>
+    <t>#下一目录（组）（事件为对话Id+事件ID）</t>
+  </si>
+  <si>
+    <t>#头像图片路径</t>
   </si>
   <si>
     <t>你的前方冲出几个蒙面黑衣人</t>
   </si>
   <si>
+    <t>UITexture/Head/hero00_2</t>
+  </si>
+  <si>
     <t>他们凶神恶煞，手持利刃向你走来</t>
   </si>
   <si>
+    <t>UITexture/Head/hero00_1</t>
+  </si>
+  <si>
     <t>“兄弟们最近手头紧，想跟你借点钱花花！”为首的人说到</t>
   </si>
   <si>
@@ -96,7 +102,22 @@
     <t>“三五瓶，逼两拳，老哥还会军体拳；留卡号，心意钱，打多打少是个缘！”</t>
   </si>
   <si>
-    <t>ssssssssssssssssssssssss</t>
+    <t>你捡到一块金子，你应该</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>拾金不昧(金钱+10）</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>据为己有（智力+1）</t>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
 </sst>
 </file>
@@ -104,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,29 +141,119 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,35 +261,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,69 +277,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,25 +304,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,145 +436,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +483,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -482,59 +547,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,7 +603,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,124 +612,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,15 +1085,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="62.875" customWidth="1"/>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1106,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1139,8 +1163,8 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1148,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1156,8 +1180,8 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1165,7 +1189,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1173,8 +1197,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1182,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1190,8 +1214,8 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1199,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1207,8 +1231,8 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1216,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1224,8 +1248,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1233,7 +1257,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1241,8 +1265,8 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1250,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1258,8 +1282,8 @@
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1267,7 +1291,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1275,8 +1299,8 @@
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1284,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1292,8 +1316,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1301,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1309,8 +1333,8 @@
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1318,7 +1342,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1326,25 +1350,50 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/DialogTable.xlsx
+++ b/DataTable/DialogTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>Id</t>
   </si>
@@ -51,73 +51,136 @@
     <t>#文本</t>
   </si>
   <si>
-    <t>#类型(1正常对话，2选项，3事件）</t>
-  </si>
-  <si>
-    <t>#下一目录（组）（事件为对话Id+事件ID）</t>
+    <t>#类型(1正常对话，2选项，3事件，4战斗）</t>
+  </si>
+  <si>
+    <t>#下一目录（组）（事件为事件ID+成功对话Id+失败对话Id，战斗为怪物代码）</t>
   </si>
   <si>
     <t>#头像图片路径</t>
   </si>
   <si>
-    <t>你的前方冲出几个蒙面黑衣人</t>
+    <t>烟雾缭绕中，你看到一口井。</t>
+  </si>
+  <si>
+    <t>井旁有一个用来打水的木桶。你会……</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>打水喝</t>
+  </si>
+  <si>
+    <t>1,0,0</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>前方走来一个身影，与你擦身而过</t>
+  </si>
+  <si>
+    <t>6,7</t>
+  </si>
+  <si>
+    <t>拦下他</t>
+  </si>
+  <si>
+    <t>让他走</t>
+  </si>
+  <si>
+    <t>他惊愕的转身道：“大侠，我只是路过的，饶命”</t>
   </si>
   <si>
     <t>UITexture/Head/hero00_2</t>
   </si>
   <si>
-    <t>他们凶神恶煞，手持利刃向你走来</t>
-  </si>
-  <si>
-    <t>UITexture/Head/hero00_1</t>
-  </si>
-  <si>
-    <t>“兄弟们最近手头紧，想跟你借点钱花花！”为首的人说到</t>
-  </si>
-  <si>
-    <t>路上，你遇到一伙官兵</t>
-  </si>
-  <si>
-    <t>他们挨个的搜查行人的包裹</t>
-  </si>
-  <si>
-    <t>“朝廷搜查钦犯，把身上值钱的东西都留下来！”为首的人说到</t>
-  </si>
-  <si>
-    <t>“抓小偷啊！”</t>
-  </si>
-  <si>
-    <t>你听见有人呼救</t>
-  </si>
-  <si>
-    <t>扭头一看，一群人正追打着一瘦小男人</t>
-  </si>
-  <si>
-    <t>瘦小男人凭借灵巧的身法轻易摆脱了众人。</t>
-  </si>
-  <si>
-    <t>“大哥，打发点吧”一个乞丐想你伸出了碗</t>
-  </si>
-  <si>
-    <t>“三五瓶，逼两拳，老哥还会军体拳；留卡号，心意钱，打多打少是个缘！”</t>
-  </si>
-  <si>
-    <t>你捡到一块金子，你应该</t>
-  </si>
-  <si>
-    <t>14,15</t>
-  </si>
-  <si>
-    <t>拾金不昧(金钱+10）</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>据为己有（智力+1）</t>
-  </si>
-  <si>
-    <t>0,2</t>
+    <t>这点小伎俩骗不过你，你从他怀里掏出了你的钱袋。</t>
+  </si>
+  <si>
+    <t>“大爷，别报官，我混口饭吃不容易”</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>索要好处</t>
+  </si>
+  <si>
+    <t>2,0,0</t>
+  </si>
+  <si>
+    <t>你行至山中，正觉腹中饥渴</t>
+  </si>
+  <si>
+    <t>前方林中似乎有几只野兽，你想要</t>
+  </si>
+  <si>
+    <t>15,16</t>
+  </si>
+  <si>
+    <t>狩猎一番</t>
+  </si>
+  <si>
+    <t>爱护野生动物，绕道走</t>
+  </si>
+  <si>
+    <t>你路过一家小型商店</t>
+  </si>
+  <si>
+    <t>18,19,20</t>
+  </si>
+  <si>
+    <t>买一点食物</t>
+  </si>
+  <si>
+    <t>3,28,27</t>
+  </si>
+  <si>
+    <t>买一点药材</t>
+  </si>
+  <si>
+    <t>4,29,27</t>
+  </si>
+  <si>
+    <t>你路过一家医馆</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>请名医整治</t>
+  </si>
+  <si>
+    <t>5,31,27</t>
+  </si>
+  <si>
+    <t>你路过一家饭馆</t>
+  </si>
+  <si>
+    <t>25,26</t>
+  </si>
+  <si>
+    <t>买大量的食物</t>
+  </si>
+  <si>
+    <t>6,30,27</t>
+  </si>
+  <si>
+    <t>你的金钱不足</t>
+  </si>
+  <si>
+    <t>花费了一定的金钱后，买了一些食物</t>
+  </si>
+  <si>
+    <t>花费了一定的金钱后，买了一些药材，回复了血量</t>
+  </si>
+  <si>
+    <t>花费了大量的金钱后，买了大量食物</t>
+  </si>
+  <si>
+    <t>医生为你系统的检查了伤势，并给你做了治疗</t>
   </si>
 </sst>
 </file>
@@ -127,8 +190,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -147,6 +210,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -155,81 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,41 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,12 +361,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,163 +481,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +564,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,16 +600,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +619,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,21 +646,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,17 +1148,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="62.875" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="76.5" customWidth="1"/>
     <col min="5" max="5" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1150,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1163,45 +1226,36 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1212,13 +1266,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1226,47 +1277,38 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1274,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1283,24 +1325,21 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
         <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1308,50 +1347,44 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1359,13 +1392,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1373,13 +1406,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1387,13 +1420,237 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/DialogTable.xlsx
+++ b/DataTable/DialogTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Id</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>医生为你系统的检查了伤势，并给你做了治疗</t>
+  </si>
+  <si>
+    <t>是否进入下一关</t>
+  </si>
+  <si>
+    <t>33,34</t>
+  </si>
+  <si>
+    <t>进入下一关</t>
+  </si>
+  <si>
+    <t>在本关继续停留</t>
+  </si>
+  <si>
+    <t>你的面前出现了一个宝箱，你走过去打开了它</t>
+  </si>
+  <si>
+    <t>7,0,0</t>
   </si>
 </sst>
 </file>
@@ -188,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -199,6 +217,80 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,47 +302,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,83 +358,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,19 +373,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,13 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,145 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,17 +567,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,41 +619,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -623,11 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +655,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,145 +672,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1148,10 +1166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1651,6 +1669,62 @@
       </c>
       <c r="D34" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/DialogTable.xlsx
+++ b/DataTable/DialogTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\BigHead\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Id</t>
   </si>
@@ -93,9 +98,6 @@
     <t>他惊愕的转身道：“大侠，我只是路过的，饶命”</t>
   </si>
   <si>
-    <t>UITexture/Head/hero00_2</t>
-  </si>
-  <si>
     <t>这点小伎俩骗不过你，你从他怀里掏出了你的钱袋。</t>
   </si>
   <si>
@@ -199,19 +201,21 @@
   </si>
   <si>
     <t>7,0,0</t>
+  </si>
+  <si>
+    <t>Head/hero00_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head/hero00_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,345 +224,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -566,314 +261,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1160,19 +572,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="62.875" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
@@ -1180,7 +592,7 @@
     <col min="5" max="5" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1214,7 +626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1231,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1245,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1259,7 +671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1273,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1287,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1301,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1315,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1329,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1343,15 +755,15 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1360,24 +772,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1391,26 +803,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1419,26 +831,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1447,12 +859,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1461,49 +873,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1517,35 +929,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1559,35 +971,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1601,12 +1013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1615,82 +1027,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
         <v>55</v>
       </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1699,12 +1111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1713,57 +1125,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>